--- a/backend/uploads/cosine_clustered_item_description.xlsx
+++ b/backend/uploads/cosine_clustered_item_description.xlsx
@@ -29,12 +29,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -635,91 +642,92 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>import</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>2018-04-01</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>nhava sheva sea (innsa1)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>2018-04-18 00:00:00</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>27131100</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>china</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>graphitized petroleum coke fc: 985%min s: 005%max ash: 0 50%max vm: 050max moisture: 050%max size(90%min) 02-1mm</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>graphitized petroleum coke fc: 985%min s: 005%max ash: 0 50%max vm: 050%max moisture: 050%max size:02-1mm</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>usd</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2" t="n">
         <v>850</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>kgs</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="2" t="n">
         <v>56015</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="2" t="n">
         <v>1120300</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="2" t="inlineStr">
         <is>
           <t>ningxia wanboda group shares co l</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="2" t="inlineStr">
         <is>
           <t>magna industries</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>estate ltd hatkanangale kolhapur</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>january</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="2" t="n">
         <v>56015</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="2" t="n">
         <v>1120300</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="2" t="n">
         <v>850</v>
       </c>
     </row>
@@ -1080,91 +1088,92 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>import</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>2018-04-01</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>paradeep port sea (inprt1)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>2018-04-05 00:00:00</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2" t="n">
         <v>27131100</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>china</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>green (raw) petroleum coke (in bulk)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>green(raw) petroleum coke (in bulk)</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>usd</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="2" t="n">
         <v>304.674399</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="2" t="n">
         <v>5001000</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>kgs</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="2" t="n">
         <v>20052.51</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="2" t="n">
         <v>100282578.85</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>lt groups</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>goa carbon limited</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>panaji goa</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>january</t>
         </is>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="2" t="n">
         <v>20052.51</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" s="2" t="n">
         <v>100282578.85</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8" s="2" t="n">
         <v>304.674399</v>
       </c>
     </row>
@@ -1258,180 +1267,182 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>import</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>2018-04-01</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>paradeep port sea (inprt1)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>2018-04-05 00:00:00</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2" t="n">
         <v>27131100</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>china</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>green (raw) petroleum coke (in bulk)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>green(raw) petroleum coke (in bulk)</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>usd</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="2" t="n">
         <v>230.94</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="2" t="n">
         <v>4500000</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>kgs</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="2" t="n">
         <v>15199.5</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="2" t="n">
         <v>68397762</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>lt groups</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>goa carbon limited</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>panaji goa</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>january</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="2" t="n">
         <v>15199.5</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" s="2" t="n">
         <v>68397762</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10" s="2" t="n">
         <v>230.94</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>import</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>2018-04-01</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>paradeep port sea (inprt1)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>2018-04-05 00:00:00</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2" t="n">
         <v>27131100</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>china</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>green (raw) petroleum coke (in bulk)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>green(raw) petroleum coke (in bulk)</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>usd</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="2" t="n">
         <v>6000000</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>kgs</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="2" t="n">
         <v>10201.42</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="2" t="n">
         <v>61208509</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="2" t="inlineStr">
         <is>
           <t>lt groups</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>goa carbon limited</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>panaji goa</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>january</t>
         </is>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="2" t="n">
         <v>10201.42</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="2" t="n">
         <v>61208509</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="2" t="n">
         <v>155</v>
       </c>
     </row>
@@ -1515,13 +1526,13 @@
         <v>2021</v>
       </c>
       <c r="T12" t="n">
-        <v>2.199</v>
+        <v>2.2023</v>
       </c>
       <c r="U12" t="n">
-        <v>2858.6746</v>
+        <v>2862.9648</v>
       </c>
       <c r="V12" t="n">
-        <v>3.4794</v>
+        <v>3.4846</v>
       </c>
     </row>
     <row r="13">
@@ -1782,10 +1793,10 @@
         <v>2021</v>
       </c>
       <c r="T15" t="n">
-        <v>6.382</v>
+        <v>6.3818</v>
       </c>
       <c r="U15" t="n">
-        <v>6381774.1978</v>
+        <v>6381553.8694</v>
       </c>
       <c r="V15" t="n">
         <v>0.3487</v>
@@ -1871,10 +1882,10 @@
         <v>2021</v>
       </c>
       <c r="T16" t="n">
-        <v>6.382</v>
+        <v>6.3818</v>
       </c>
       <c r="U16" t="n">
-        <v>12763548.1233</v>
+        <v>12763107.4665</v>
       </c>
       <c r="V16" t="n">
         <v>0.3487</v>
@@ -1960,10 +1971,10 @@
         <v>2021</v>
       </c>
       <c r="T17" t="n">
-        <v>6.382</v>
+        <v>6.3818</v>
       </c>
       <c r="U17" t="n">
-        <v>15954434.8138</v>
+        <v>15953883.9929</v>
       </c>
       <c r="V17" t="n">
         <v>0.3487</v>
@@ -2049,10 +2060,10 @@
         <v>2021</v>
       </c>
       <c r="T18" t="n">
-        <v>6.382</v>
+        <v>6.3818</v>
       </c>
       <c r="U18" t="n">
-        <v>1749531.4132</v>
+        <v>1749471.0113</v>
       </c>
       <c r="V18" t="n">
         <v>0.3487</v>
@@ -2138,10 +2149,10 @@
         <v>2021</v>
       </c>
       <c r="T19" t="n">
-        <v>6.382</v>
+        <v>6.3818</v>
       </c>
       <c r="U19" t="n">
-        <v>3190886.9628</v>
+        <v>3190776.7986</v>
       </c>
       <c r="V19" t="n">
         <v>0.3487</v>
@@ -3206,13 +3217,13 @@
         <v>2021</v>
       </c>
       <c r="T31" t="n">
-        <v>2.1804</v>
+        <v>2.1837</v>
       </c>
       <c r="U31" t="n">
-        <v>3488.6664</v>
+        <v>3493.902</v>
       </c>
       <c r="V31" t="n">
-        <v>3.4794</v>
+        <v>3.4846</v>
       </c>
     </row>
     <row r="32">
@@ -3473,13 +3484,13 @@
         <v>2021</v>
       </c>
       <c r="T34" t="n">
-        <v>84.9721</v>
+        <v>84.9866</v>
       </c>
       <c r="U34" t="n">
-        <v>849696.6642999999</v>
+        <v>849841.9051</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8073</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="35">
@@ -3562,13 +3573,13 @@
         <v>2021</v>
       </c>
       <c r="T35" t="n">
-        <v>83.0749</v>
+        <v>83.0891</v>
       </c>
       <c r="U35" t="n">
-        <v>332299.6052</v>
+        <v>332356.4061</v>
       </c>
       <c r="V35" t="n">
-        <v>0.8073</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="36">
@@ -3651,13 +3662,13 @@
         <v>2021</v>
       </c>
       <c r="T36" t="n">
-        <v>83.0749</v>
+        <v>83.0891</v>
       </c>
       <c r="U36" t="n">
-        <v>332299.6052</v>
+        <v>332356.4061</v>
       </c>
       <c r="V36" t="n">
-        <v>0.8073</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="37">
@@ -3740,13 +3751,13 @@
         <v>2021</v>
       </c>
       <c r="T37" t="n">
-        <v>670.6317</v>
+        <v>671.8729</v>
       </c>
       <c r="U37" t="n">
-        <v>134125.3244</v>
+        <v>134373.5613</v>
       </c>
       <c r="V37" t="n">
-        <v>8.212999999999999</v>
+        <v>8.228199999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3829,13 +3840,13 @@
         <v>2021</v>
       </c>
       <c r="T38" t="n">
-        <v>79866.2029</v>
+        <v>79928.6032</v>
       </c>
       <c r="U38" t="n">
-        <v>1916788.8706</v>
+        <v>1918286.4776</v>
       </c>
       <c r="V38" t="n">
-        <v>984.1799</v>
+        <v>984.9489</v>
       </c>
     </row>
     <row r="39">
@@ -3928,91 +3939,92 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>import</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>2018-05-01</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>vizag sea (invtz1)</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>2018-05-17 00:00:00</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="2" t="n">
         <v>27131200</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr">
         <is>
           <t>china</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>calcined petroleum coke in bulk</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>calcined petroleum coke</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>usd</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="J40" s="2" t="n">
         <v>455</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" s="2" t="n">
         <v>10500000</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>kgs</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="M40" s="2" t="n">
         <v>32007</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40" s="2" t="n">
         <v>336073492.8</v>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="O40" s="2" t="inlineStr">
         <is>
           <t>zhenjiang carbon products</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="P40" s="2" t="inlineStr">
         <is>
           <t>rain cii carbon (vizag) limited</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="Q40" s="2" t="inlineStr">
         <is>
           <t>hyderabad telangana</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
         <is>
           <t>january</t>
         </is>
       </c>
-      <c r="S40" t="n">
+      <c r="S40" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="T40" t="n">
+      <c r="T40" s="2" t="n">
         <v>32007</v>
       </c>
-      <c r="U40" t="n">
+      <c r="U40" s="2" t="n">
         <v>336073492.8</v>
       </c>
-      <c r="V40" t="n">
+      <c r="V40" s="2" t="n">
         <v>455</v>
       </c>
     </row>
@@ -4274,13 +4286,13 @@
         <v>2021</v>
       </c>
       <c r="T43" t="n">
-        <v>262146.4976</v>
+        <v>262351.3154</v>
       </c>
       <c r="U43" t="n">
-        <v>1310732.4647</v>
+        <v>1311756.5536</v>
       </c>
       <c r="V43" t="n">
-        <v>2655.5388</v>
+        <v>2657.6136</v>
       </c>
     </row>
     <row r="44">
@@ -4314,7 +4326,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>graphitized petroleum coke --petroleum coke</t>
+          <t>petroleum coke (graphitized)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4492,7 +4504,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>calcined petroleum coke in bulk</t>
+          <t>calcined petroleum coke</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">

--- a/backend/uploads/cosine_clustered_item_description.xlsx
+++ b/backend/uploads/cosine_clustered_item_description.xlsx
@@ -642,92 +642,91 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>import</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>2018-04-01</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>nhava sheva sea (innsa1)</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>2018-04-18 00:00:00</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" t="n">
         <v>27131100</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>china</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>graphitized petroleum coke fc: 985%min s: 005%max ash: 0 50%max vm: 050%max moisture: 050%max size:02-1mm</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>usd</t>
         </is>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" t="n">
         <v>850</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" t="n">
         <v>20000</v>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>kgs</t>
         </is>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" t="n">
         <v>56015</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" t="n">
         <v>1120300</v>
       </c>
-      <c r="O3" s="2" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>ningxia wanboda group shares co l</t>
         </is>
       </c>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>magna industries</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>estate ltd hatkanangale kolhapur</t>
         </is>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>january</t>
         </is>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="S3" t="n">
         <v>2021</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" t="n">
         <v>56015</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" t="n">
         <v>1120300</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" t="n">
         <v>850</v>
       </c>
     </row>
@@ -1526,13 +1525,13 @@
         <v>2021</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2023</v>
+        <v>2.2005</v>
       </c>
       <c r="U12" t="n">
-        <v>2862.9648</v>
+        <v>2860.6286</v>
       </c>
       <c r="V12" t="n">
-        <v>3.4846</v>
+        <v>3.4818</v>
       </c>
     </row>
     <row r="13">
@@ -1793,10 +1792,10 @@
         <v>2021</v>
       </c>
       <c r="T15" t="n">
-        <v>6.3818</v>
+        <v>6.3817</v>
       </c>
       <c r="U15" t="n">
-        <v>6381553.8694</v>
+        <v>6381471.8322</v>
       </c>
       <c r="V15" t="n">
         <v>0.3487</v>
@@ -1882,10 +1881,10 @@
         <v>2021</v>
       </c>
       <c r="T16" t="n">
-        <v>6.3818</v>
+        <v>6.3817</v>
       </c>
       <c r="U16" t="n">
-        <v>12763107.4665</v>
+        <v>12762943.3922</v>
       </c>
       <c r="V16" t="n">
         <v>0.3487</v>
@@ -1971,10 +1970,10 @@
         <v>2021</v>
       </c>
       <c r="T17" t="n">
-        <v>6.3818</v>
+        <v>6.3817</v>
       </c>
       <c r="U17" t="n">
-        <v>15953883.9929</v>
+        <v>15953678.8999</v>
       </c>
       <c r="V17" t="n">
         <v>0.3487</v>
@@ -2060,10 +2059,10 @@
         <v>2021</v>
       </c>
       <c r="T18" t="n">
-        <v>6.3818</v>
+        <v>6.3817</v>
       </c>
       <c r="U18" t="n">
-        <v>1749471.0113</v>
+        <v>1749448.5212</v>
       </c>
       <c r="V18" t="n">
         <v>0.3487</v>
@@ -2149,10 +2148,10 @@
         <v>2021</v>
       </c>
       <c r="T19" t="n">
-        <v>6.3818</v>
+        <v>6.3817</v>
       </c>
       <c r="U19" t="n">
-        <v>3190776.7986</v>
+        <v>3190735.78</v>
       </c>
       <c r="V19" t="n">
         <v>0.3487</v>
@@ -3217,13 +3216,13 @@
         <v>2021</v>
       </c>
       <c r="T31" t="n">
-        <v>2.1837</v>
+        <v>2.1819</v>
       </c>
       <c r="U31" t="n">
-        <v>3493.902</v>
+        <v>3491.0509</v>
       </c>
       <c r="V31" t="n">
-        <v>3.4846</v>
+        <v>3.4818</v>
       </c>
     </row>
     <row r="32">
@@ -3484,13 +3483,13 @@
         <v>2021</v>
       </c>
       <c r="T34" t="n">
-        <v>84.9866</v>
+        <v>84.8843</v>
       </c>
       <c r="U34" t="n">
-        <v>849841.9051</v>
+        <v>848818.9044999999</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8075</v>
+        <v>0.8065</v>
       </c>
     </row>
     <row r="35">
@@ -3573,13 +3572,13 @@
         <v>2021</v>
       </c>
       <c r="T35" t="n">
-        <v>83.0891</v>
+        <v>82.98909999999999</v>
       </c>
       <c r="U35" t="n">
-        <v>332356.4061</v>
+        <v>331956.3307</v>
       </c>
       <c r="V35" t="n">
-        <v>0.8075</v>
+        <v>0.8065</v>
       </c>
     </row>
     <row r="36">
@@ -3662,13 +3661,13 @@
         <v>2021</v>
       </c>
       <c r="T36" t="n">
-        <v>83.0891</v>
+        <v>82.98909999999999</v>
       </c>
       <c r="U36" t="n">
-        <v>332356.4061</v>
+        <v>331956.3307</v>
       </c>
       <c r="V36" t="n">
-        <v>0.8075</v>
+        <v>0.8065</v>
       </c>
     </row>
     <row r="37">
@@ -3751,13 +3750,13 @@
         <v>2021</v>
       </c>
       <c r="T37" t="n">
-        <v>671.8729</v>
+        <v>671.5915</v>
       </c>
       <c r="U37" t="n">
-        <v>134373.5613</v>
+        <v>134317.2859</v>
       </c>
       <c r="V37" t="n">
-        <v>8.228199999999999</v>
+        <v>8.2247</v>
       </c>
     </row>
     <row r="38">
@@ -3840,13 +3839,13 @@
         <v>2021</v>
       </c>
       <c r="T38" t="n">
-        <v>79928.6032</v>
+        <v>79873.7458</v>
       </c>
       <c r="U38" t="n">
-        <v>1918286.4776</v>
+        <v>1916969.9</v>
       </c>
       <c r="V38" t="n">
-        <v>984.9489</v>
+        <v>984.2729</v>
       </c>
     </row>
     <row r="39">
@@ -4286,101 +4285,102 @@
         <v>2021</v>
       </c>
       <c r="T43" t="n">
-        <v>262351.3154</v>
+        <v>262171.2558</v>
       </c>
       <c r="U43" t="n">
-        <v>1311756.5536</v>
+        <v>1310856.2557</v>
       </c>
       <c r="V43" t="n">
-        <v>2657.6136</v>
+        <v>2655.7896</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>import</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>2018-05-01</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>kolkata sea (inccu1)</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>2018-05-23 00:00:00</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="2" t="n">
         <v>27131200</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>china</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>petroleum coke (graphitized)</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>usd</t>
         </is>
       </c>
-      <c r="J44" t="n">
+      <c r="J44" s="2" t="n">
         <v>1.17</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44" s="2" t="n">
         <v>90100</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>kgs</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="M44" s="2" t="n">
         <v>80.31999999999999</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44" s="2" t="n">
         <v>7236877.05</v>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="O44" s="2" t="inlineStr">
         <is>
           <t>teamwell century international</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="P44" s="2" t="inlineStr">
         <is>
           <t>tata steel limited</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="Q44" s="2" t="inlineStr">
         <is>
           <t>mumbai maharashtra</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>january</t>
         </is>
       </c>
-      <c r="S44" t="n">
+      <c r="S44" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="T44" t="n">
+      <c r="T44" s="2" t="n">
         <v>80.31999999999999</v>
       </c>
-      <c r="U44" t="n">
+      <c r="U44" s="2" t="n">
         <v>7236877.05</v>
       </c>
-      <c r="V44" t="n">
+      <c r="V44" s="2" t="n">
         <v>1.17</v>
       </c>
     </row>

--- a/backend/uploads/cosine_clustered_item_description.xlsx
+++ b/backend/uploads/cosine_clustered_item_description.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1524,15 +1524,6 @@
       <c r="S12" t="n">
         <v>2021</v>
       </c>
-      <c r="T12" t="n">
-        <v>2.2005</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2860.6286</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.4818</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1791,15 +1782,6 @@
       <c r="S15" t="n">
         <v>2021</v>
       </c>
-      <c r="T15" t="n">
-        <v>6.3817</v>
-      </c>
-      <c r="U15" t="n">
-        <v>6381471.8322</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.3487</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1880,15 +1862,6 @@
       <c r="S16" t="n">
         <v>2021</v>
       </c>
-      <c r="T16" t="n">
-        <v>6.3817</v>
-      </c>
-      <c r="U16" t="n">
-        <v>12762943.3922</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.3487</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1969,15 +1942,6 @@
       <c r="S17" t="n">
         <v>2021</v>
       </c>
-      <c r="T17" t="n">
-        <v>6.3817</v>
-      </c>
-      <c r="U17" t="n">
-        <v>15953678.8999</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.3487</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2058,15 +2022,6 @@
       <c r="S18" t="n">
         <v>2021</v>
       </c>
-      <c r="T18" t="n">
-        <v>6.3817</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1749448.5212</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.3487</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2147,15 +2102,6 @@
       <c r="S19" t="n">
         <v>2021</v>
       </c>
-      <c r="T19" t="n">
-        <v>6.3817</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3190735.78</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.3487</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3215,15 +3161,6 @@
       <c r="S31" t="n">
         <v>2021</v>
       </c>
-      <c r="T31" t="n">
-        <v>2.1819</v>
-      </c>
-      <c r="U31" t="n">
-        <v>3491.0509</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3.4818</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3482,15 +3419,6 @@
       <c r="S34" t="n">
         <v>2021</v>
       </c>
-      <c r="T34" t="n">
-        <v>84.8843</v>
-      </c>
-      <c r="U34" t="n">
-        <v>848818.9044999999</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.8065</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3571,15 +3499,6 @@
       <c r="S35" t="n">
         <v>2021</v>
       </c>
-      <c r="T35" t="n">
-        <v>82.98909999999999</v>
-      </c>
-      <c r="U35" t="n">
-        <v>331956.3307</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.8065</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3660,15 +3579,6 @@
       <c r="S36" t="n">
         <v>2021</v>
       </c>
-      <c r="T36" t="n">
-        <v>82.98909999999999</v>
-      </c>
-      <c r="U36" t="n">
-        <v>331956.3307</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.8065</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3749,15 +3659,6 @@
       <c r="S37" t="n">
         <v>2021</v>
       </c>
-      <c r="T37" t="n">
-        <v>671.5915</v>
-      </c>
-      <c r="U37" t="n">
-        <v>134317.2859</v>
-      </c>
-      <c r="V37" t="n">
-        <v>8.2247</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3838,15 +3739,6 @@
       <c r="S38" t="n">
         <v>2021</v>
       </c>
-      <c r="T38" t="n">
-        <v>79873.7458</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1916969.9</v>
-      </c>
-      <c r="V38" t="n">
-        <v>984.2729</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4284,15 +4176,6 @@
       <c r="S43" t="n">
         <v>2021</v>
       </c>
-      <c r="T43" t="n">
-        <v>262171.2558</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1310856.2557</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2655.7896</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -4516,7 +4399,7 @@
         <v>485</v>
       </c>
       <c r="K46" t="n">
-        <v>5198000</v>
+        <v>50000</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -4559,6 +4442,362 @@
         <v>173074128.2</v>
       </c>
       <c r="V46" t="n">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>import</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2019-08-01</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>kakinada sea (inkak1)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2018-05-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>27131200</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>calcined petroleum coke</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>485</v>
+      </c>
+      <c r="K47" t="n">
+        <v>100000</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>kgs</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>33296.29</v>
+      </c>
+      <c r="N47" t="n">
+        <v>173074128.2</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>oxbow calcining international</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>vedanta limited</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>panajigoa</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>january</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>2021</v>
+      </c>
+      <c r="T47" t="n">
+        <v>33296.29</v>
+      </c>
+      <c r="U47" t="n">
+        <v>173074128.2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>import</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>kakinada sea (inkak1)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2018-05-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>27131200</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>calcined petroleum coke in bulk</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>485</v>
+      </c>
+      <c r="K48" t="n">
+        <v>150000</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>kgs</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>33296.29</v>
+      </c>
+      <c r="N48" t="n">
+        <v>173074128.2</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>oxbow calcining international</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>vedanta limited</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>panajigoa</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>january</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>2021</v>
+      </c>
+      <c r="T48" t="n">
+        <v>33296.29</v>
+      </c>
+      <c r="U48" t="n">
+        <v>173074128.2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>import</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>kakinada sea (inkak1)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2018-05-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>27131200</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>calcined petroleum coke in bulk</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>485</v>
+      </c>
+      <c r="K49" t="n">
+        <v>180000</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>kgs</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>33296.29</v>
+      </c>
+      <c r="N49" t="n">
+        <v>173074128.2</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>oxbow calcining international</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>vedanta limited</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>panajigoa</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>january</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
+        <v>2021</v>
+      </c>
+      <c r="T49" t="n">
+        <v>33296.29</v>
+      </c>
+      <c r="U49" t="n">
+        <v>173074128.2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>import</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>kakinada sea (inkak1)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2018-05-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>27131200</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>calcined petroleum coke in bulk</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>485</v>
+      </c>
+      <c r="K50" t="n">
+        <v>190000</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>kgs</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>33296.29</v>
+      </c>
+      <c r="N50" t="n">
+        <v>173074128.2</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>oxbow calcining international</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>vedanta limited</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>panajigoa</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>january</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="T50" t="n">
+        <v>33296.29</v>
+      </c>
+      <c r="U50" t="n">
+        <v>173074128.2</v>
+      </c>
+      <c r="V50" t="n">
         <v>485</v>
       </c>
     </row>

--- a/backend/uploads/cosine_clustered_item_description.xlsx
+++ b/backend/uploads/cosine_clustered_item_description.xlsx
@@ -642,91 +642,92 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>import</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>2018-04-01</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>nhava sheva sea (innsa1)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>2018-04-18 00:00:00</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>27131100</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>china</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>graphitized petroleum coke fc: 985%min s: 005%max ash: 0 50%max vm: 050%max moisture: 050%max size:02-1mm</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>usd</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2" t="n">
         <v>850</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>kgs</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="2" t="n">
         <v>56015</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="2" t="n">
         <v>1120300</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="2" t="inlineStr">
         <is>
           <t>ningxia wanboda group shares co l</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="2" t="inlineStr">
         <is>
           <t>magna industries</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>estate ltd hatkanangale kolhapur</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>january</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="2" t="n">
         <v>56015</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="2" t="n">
         <v>1120300</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="2" t="n">
         <v>850</v>
       </c>
     </row>
@@ -1266,182 +1267,180 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>import</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>2018-04-01</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>paradeep port sea (inprt1)</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>2018-04-05 00:00:00</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" t="n">
         <v>27131100</v>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>china</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>green(raw) petroleum coke (in bulk)</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>green (raw) petroleum coke (in bulk)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>usd</t>
         </is>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" t="n">
         <v>230.94</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" t="n">
         <v>4500000</v>
       </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>kgs</t>
         </is>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="M10" t="n">
         <v>15199.5</v>
       </c>
-      <c r="N10" s="2" t="n">
+      <c r="N10" t="n">
         <v>68397762</v>
       </c>
-      <c r="O10" s="2" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>lt groups</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>goa carbon limited</t>
         </is>
       </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>panaji goa</t>
         </is>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>january</t>
         </is>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" t="n">
         <v>2021</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" t="n">
         <v>15199.5</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" t="n">
         <v>68397762</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" t="n">
         <v>230.94</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>import</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>2018-04-01</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>paradeep port sea (inprt1)</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>2018-04-05 00:00:00</t>
         </is>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" t="n">
         <v>27131100</v>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>china</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>green(raw) petroleum coke (in bulk)</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>green (raw) petroleum coke (in bulk)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>usd</t>
         </is>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" t="n">
         <v>155</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" t="n">
         <v>6000000</v>
       </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>kgs</t>
         </is>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="M11" t="n">
         <v>10201.42</v>
       </c>
-      <c r="N11" s="2" t="n">
+      <c r="N11" t="n">
         <v>61208509</v>
       </c>
-      <c r="O11" s="2" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>lt groups</t>
         </is>
       </c>
-      <c r="P11" s="2" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>goa carbon limited</t>
         </is>
       </c>
-      <c r="Q11" s="2" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>panaji goa</t>
         </is>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>january</t>
         </is>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" t="n">
         <v>2021</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" t="n">
         <v>10201.42</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" t="n">
         <v>61208509</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" t="n">
         <v>155</v>
       </c>
     </row>
@@ -4387,7 +4386,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>calcined petroleum coke</t>
+          <t>calcined petroleum coke in bulk</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4476,7 +4475,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>calcined petroleum coke</t>
+          <t>calcined petroleum coke in bulk</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
